--- a/biology/Botanique/Liste_de_plantes_de_fiction/Liste_de_plantes_de_fiction.xlsx
+++ b/biology/Botanique/Liste_de_plantes_de_fiction/Liste_de_plantes_de_fiction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes de fiction sont des plantes inventées, qui n'existent pas dans le monde réel et qui sont issues d'œuvres de fiction. Les plantes de fiction apparaissent au cinéma, à la télévision, dans la littérature ou d'autres médias.
 </t>
@@ -511,9 +523,11 @@
           <t>Plantes de fiction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Akarso - plante caractérisée par des feuilles presque oblongues à raies vertes et blanches de l'univers de Dune
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Akarso - plante caractérisée par des feuilles presque oblongues à raies vertes et blanches de l'univers de Dune
 Audrey Jr./Audrey II - plante carnivore extraterrestre des films La Petite Boutique des horreurs
 Axis - arbre colossal qui s'étend au-dessus des nuages dans le film d'animation Kaena, la prophétie
 Beauregard - plante de l'univers de Star Trek
@@ -554,9 +568,43 @@
 Arbre Truffula - arbre de The Lorax par Dr. Seuss
 Arbre Tumtum - arbre du poème loufoque Jabberwocky d'Alice au pays des merveilles par Lewis Carroll
 Vigne Vul nut - plante qui peut commencer à fleurir 8 ans avant d'être semée du Disque-monde par Terry Pratchett. Le vin obtenu de cette vigne peut donner au buveur une vision du futur, et une sérieuse gueule de bois la veille.
-Whistling leaves - plante à larges feuilles d’Elfquest dont les larges trous provoquent des sifflements lorsque le vent les traverse. Les feuilles sont un puissant diurétique.
-Plantes de la Terre du Milieu de J. R. R. Tolkien
-Aeglos - buisson épineux
+Whistling leaves - plante à larges feuilles d’Elfquest dont les larges trous provoquent des sifflements lorsque le vent les traverse. Les feuilles sont un puissant diurétique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Plantes de fiction</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Plantes de la Terre du Milieu de J. R. R. Tolkien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aeglos - buisson épineux
 Alfirin - fleur dorée en forme de cloche
 Arbre blanc du Gondor
 Arbres du Valinor
@@ -569,17 +617,86 @@
 Niphredil - petite fleur blanche étoilée dont le nom signifie étoile de la terre
 Seregon - plante à fleur rouge sang
 Symbelmynë - petite fleur blanche
-Herbe à pipe - une plante sauvage utilisée comme tabac
-Plantes de l'univers de Harry Potter par J. K. Rowling
-Bubobulb - plante dont le pus permet de soigner l'acné notamment
+Herbe à pipe - une plante sauvage utilisée comme tabac</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plantes de fiction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Plantes de l'univers de Harry Potter par J. K. Rowling</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bubobulb - plante dont le pus permet de soigner l'acné notamment
 Branchiflore - plante permettant de respirer sous l'eau
 Mimbulus mimbletonia - cactus magique
 Snargaluff - dangereuse plante carnivore
 Venomous Tentacula - plante magique dotée de tentacules rouge sombre
 Saule cogneur - arbre magique et violent
 Voire Plantes magiques (Harry Potter) pour plus d'information.
-Plantes du cycle de Terremer par Ursula K. Le Guin
-Arhada - grand arbre à longue vie ressemblant à un chêne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plantes de fiction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes du cycle de Terremer par Ursula K. Le Guin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arhada - grand arbre à longue vie ressemblant à un chêne
 Corly - racine dont on tire une fumée employée comme traitement contre la fièvre: la courle (racines de courle)
 Hazia - plante dont la racine est employée comme une drogue pour provoquer des visions
 Hemmen - grand arbre
@@ -592,15 +709,83 @@
 Perriot - plante dont les feuilles sont utilisées pour stopper les saignements : la périotte
 Rushwash - herbe utilisée comme thé : la pointelle
 Sparkweed - fleur jaune des prés : l'étincelet
-White hallows - herbe médicinale à fleurs blanches poussant dans les marais ou les prés à rivières : les hiératines blanches
-Plantes du Monty Python's Flying Circus
-Arbre sauntering angolais (Angolan sauntering tree)
+White hallows - herbe médicinale à fleurs blanches poussant dans les marais ou les prés à rivières : les hiératines blanches</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Plantes de fiction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes du Monty Python's Flying Circus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Arbre sauntering angolais (Angolan sauntering tree)
 Buisson sidling gambien (Gambian sidling bush)
 Arbre vomissant du Mozambique (Puking Tree of Mozambique)
 La petite plante turque grossière (The Turkish little rude plant)
-L'arbre qui marche du Dahomey (Walking tree of Dahomey - Quercus nicholas parsonus) - arbre marcheur légendaire pouvant atteindre des vitesses allant jusqu'à 80 km/h, surtout lorsqu'il est pressé.
-Plantes citées par Clark Ashton Smith dans ses contes et nouvelles
-fleur-diable - fleur énorme qui prospère dans le jardin d'ornement que possèdent les souverains d'un royaume équatorial de la planète Saturne  et à l'intérieur de laquelle un très ancien démon a élu domicile - «La Fleur-diable» (1922)
+L'arbre qui marche du Dahomey (Walking tree of Dahomey - Quercus nicholas parsonus) - arbre marcheur légendaire pouvant atteindre des vitesses allant jusqu'à 80 km/h, surtout lorsqu'il est pressé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_de_fiction</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plantes de fiction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes citées par Clark Ashton Smith dans ses contes et nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fleur-diable - fleur énorme qui prospère dans le jardin d'ornement que possèdent les souverains d'un royaume équatorial de la planète Saturne  et à l'intérieur de laquelle un très ancien démon a élu domicile - «La Fleur-diable» (1922)
 plante rocher - plante carnivore gigantesque originaire d'une planète indéterminée et affectant la forme et l'aspect d'un rocher pour mieux tromper ses proies - «Abandonnés dans l'Andromède» (1930)
 plante serpent - sorte d'anaconda végétal originaire d'une planète indéterminée, aux anneaux vert pâle avec des taches brunes et pourpres irrégulières, longue de plus de trente mètres et capturant aisément les monstres aériens les plus redoutables à l'aide de trois têtes recouvertes de myriades de ventouses suceuses qui lui permettent d'aspirer ses proies après les avoir broyées - «Abandonnés dans l'Andromède» (1930)
 végétal planétaire - plante intelligente ayant la capacité de recouvrir a elle seule une planète entière et de se reproduire ensuite en expédiant ses propres boutures sur d'autres planètes, une fois les ressources de son monde d'origine épuisées - «La Semence de Mars» (1931)
